--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample01-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample01-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$D$3:$H$3</definedName>
@@ -303,7 +304,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -342,6 +343,13 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" bestFit="1" width="6.88098199026925" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.7065026419503" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="11.5720160348075" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="8.09870910644531" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="8.77802440098354" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
     <row r="3">
@@ -432,4 +440,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample01-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample01-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$D$3:$H$3</definedName>
@@ -304,7 +303,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -343,13 +342,6 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" bestFit="1" width="6.88098199026925" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="10.7065026419503" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="11.5720160348075" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="8.09870910644531" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="8.77802440098354" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
     <row r="3">
@@ -440,15 +432,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>